--- a/biology/Zoologie/Haplotaxis/Haplotaxis.xlsx
+++ b/biology/Zoologie/Haplotaxis/Haplotaxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplotaxis est un genre de vers annélides oligochètes de la famille des Haplotaxidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Synopsis of the described taxa of the world[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Synopsis of the described taxa of the world
 Haplotaxis acystis Michaelsen, 1903
 Haplotaxis aedeochaeta Brinkhurst &amp; Marchese, 1987
 Haplotaxis ascaridoides Michaelsen, 1905
@@ -578,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hoffmeister, 1843 : Beitrag zur Kenntniss deutscher Landanneliden. Archiv für Naturgeschichte, vol. 9, n. 1, p. 183–198.</t>
         </is>
